--- a/SYNTEC M CODE.xlsx
+++ b/SYNTEC M CODE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>M03 S[x]</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Позиционирующий цилиндр, опустить</t>
   </si>
   <si>
-    <t xml:space="preserve">Фрезерный шпиндель, вращение  по часовой стрелке </t>
-  </si>
-  <si>
     <t>Сверлильный шпиндель, запустить</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>M0</t>
-  </si>
-  <si>
-    <t>Конец программы, без сброса модальных функций.</t>
   </si>
   <si>
     <t>M02</t>
@@ -262,6 +256,24 @@
   </si>
   <si>
     <t>Разгрузочный цилиндр, задвинуть</t>
+  </si>
+  <si>
+    <t>Фрезерный шпиндель, вращение  по часовой стрелке (CW)</t>
+  </si>
+  <si>
+    <t>Фрезерный шпиндель, вращение  против часовой стрелки (CCW)</t>
+  </si>
+  <si>
+    <t>M04 S[x]</t>
+  </si>
+  <si>
+    <t>Конец программы</t>
+  </si>
+  <si>
+    <t>Завершение программы, возврат к исходной точке</t>
+  </si>
+  <si>
+    <t>M30</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,30 +692,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -713,287 +725,305 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
+      <c r="A4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
+      <c r="A8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>29</v>
+      <c r="C24" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>30</v>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E29" s="3"/>
     </row>
   </sheetData>

--- a/SYNTEC M CODE.xlsx
+++ b/SYNTEC M CODE.xlsx
@@ -193,21 +193,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">M32 / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>M33</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">M05 / </t>
     </r>
     <r>
@@ -274,6 +259,21 @@
   </si>
   <si>
     <t>M30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M32 S[x] / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>M33 S[x]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -678,14 +678,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
@@ -695,10 +695,10 @@
         <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -741,10 +741,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -753,10 +753,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -809,7 +809,7 @@
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>2</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>13</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>20</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>16</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>21</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>28</v>
@@ -983,10 +983,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="28" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
@@ -1016,13 +1016,13 @@
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3"/>
     </row>
